--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Product-Distribution-System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036A186-234D-461B-89CD-0DC300F466B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="28620" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +24,196 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销商表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车ID、用户ID、商品ID、商品数量、选中状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类ID、商品分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员ID、昵称、手机号、登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知ID、通知内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减ID、满足条件金额、满减金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID、昵称、手机号、登录密码、状态（1-正常，2-冻结）、注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID、商品分类ID、商品名称、商品价格、商品市场价、商品单位、商品总库存、图片地址、视频地址、商品状态（1-正常、2-下架）、创建时间、是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址ID、用户ID、收货地址、联系人、联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表ID、用户ID、收获地址ID、订单总额、优惠金额、实付金额、订单创建时间、备注信息、订单状态（1-已下单、2-分拣中、3-配送中、4-已完成）、支付类型（微信、支付宝）、交易完成时间、分销商ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表ID、订单表ID、商品ID、商品价格、商品数量、价格小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销商ID、昵称、手机号、登录密码、状态、注册时间、佣金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +233,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +548,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="203.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Product-Distribution-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036A186-234D-461B-89CD-0DC300F466B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48BD84-5D34-4DE6-9A91-2D6AFF0BDBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="28620" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="3288" windowWidth="28872" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库设计" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,9 +264,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +549,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -691,7 +688,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
